--- a/data/Analyse_multi_salt.xlsx
+++ b/data/Analyse_multi_salt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grundfos.sharepoint.com/sites/AnalyticalLaboratory/Shared Documents/General/06_Dokumentation til opg. u. rap/2021/21_NF-Mini_N5_Stud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{6B8D14A9-3F72-41E7-8AF8-F18C2785A450}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1164796D-CE3A-4706-A3E3-0B65D5941A0A}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="14_{49B238E7-3744-4467-943B-D7F5F52211C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4CE50C38-1E56-409D-B29C-65A8D21ED6B5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9A7F57C6-AEBE-42AA-863E-04BDCF82B821}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{9A7F57C6-AEBE-42AA-863E-04BDCF82B821}"/>
   </bookViews>
   <sheets>
     <sheet name="pH 9.2" sheetId="1" r:id="rId1"/>
@@ -217,10 +217,309 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Susan Ottesen</author>
+  </authors>
+  <commentList>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{9D09CE53-C008-427A-8D81-BA0425CD1A51}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Susan Ottesen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kan ikke aflæses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{D07D7F03-BC61-4760-BAD7-6D29D103BBDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Susan Ottesen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kan ikke aflæses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{59A252AF-06AD-4543-83C3-EC656D5E3E11}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Susan Ottesen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kan ikke aflæses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{1A170A88-83F2-4FD3-80F7-1A3E8F5C03FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Susan Ottesen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kan ikke aflæses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{F58F75C7-4728-4163-868C-1E9B66AD0E6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Susan Ottesen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kan ikke aflæses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{2237757E-5490-4324-9E41-0BA5C6863448}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Susan Ottesen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kan ikke aflæses</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Susan Ottesen</author>
     <author>Eva Hansen</author>
   </authors>
   <commentList>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{0F3CDCF4-7218-4D0F-854C-E942FACF354B}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{0FDB5F6C-5E4C-4D7B-84D5-79BCBE2A4201}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Susan Ottesen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kan ikke aflæses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{AA45EACB-2E79-446E-8797-C2B4A5D45C7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Susan Ottesen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kan ikke aflæses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{7BD5B072-F9D3-4E59-86CB-87B674A8C2B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Susan Ottesen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kan ikke aflæses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00E31FFF-04E1-487D-8607-89B8EE88952A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Susan Ottesen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kan ikke aflæses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{5165F578-34DC-410D-A7CC-BE1CC5B46CB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Susan Ottesen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kan ikke aflæses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{006A1010-76B5-4717-A836-749440D61488}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Susan Ottesen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kan ikke aflæses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="1" shapeId="0" xr:uid="{0F3CDCF4-7218-4D0F-854C-E942FACF354B}">
       <text>
         <r>
           <rPr>
@@ -464,10 +763,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -769,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E6429C-0FFF-4E30-BF3A-6A5B96E649C1}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -1311,11 +1606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17F5B53-D1CD-43A2-82D9-8A2F69E97C05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17F5B53-D1CD-43A2-82D9-8A2F69E97C05}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,10 +1658,18 @@
         <f>CONCATENATE("M","-10-",A2,"-F")</f>
         <v>M-10-0-F</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="D2" s="2">
+        <v>361</v>
+      </c>
+      <c r="E2" s="2">
+        <v>130</v>
+      </c>
+      <c r="F2" s="5">
+        <v>71</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3.2</v>
+      </c>
       <c r="H2" s="6">
         <v>40.700000000000003</v>
       </c>
@@ -1423,10 +1726,18 @@
         <f t="shared" si="0"/>
         <v>M-10-3-F</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="2">
+        <v>447</v>
+      </c>
+      <c r="E5" s="2">
+        <v>122</v>
+      </c>
+      <c r="F5" s="5">
+        <v>115</v>
+      </c>
+      <c r="G5" s="5">
+        <v>10</v>
+      </c>
       <c r="H5" s="6">
         <v>48.6</v>
       </c>
@@ -1443,10 +1754,16 @@
         <f t="shared" si="0"/>
         <v>M-10-3-F</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2">
+        <v>127</v>
+      </c>
+      <c r="E6" s="2">
+        <v>118</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5">
+        <v>1.8</v>
+      </c>
       <c r="H6" s="6">
         <v>25.5</v>
       </c>
@@ -1463,10 +1780,18 @@
         <f t="shared" si="0"/>
         <v>M-10-4-F</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="2">
+        <v>499</v>
+      </c>
+      <c r="E7" s="2">
+        <v>122</v>
+      </c>
+      <c r="F7" s="5">
+        <v>137</v>
+      </c>
+      <c r="G7" s="5">
+        <v>12</v>
+      </c>
       <c r="H7" s="6">
         <v>53.5</v>
       </c>
@@ -1483,10 +1808,16 @@
         <f t="shared" si="0"/>
         <v>M-10-4-F</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2">
+        <v>139</v>
+      </c>
+      <c r="E8" s="2">
+        <v>125</v>
+      </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5">
+        <v>1.7</v>
+      </c>
       <c r="H8" s="12">
         <v>25.9</v>
       </c>
@@ -1503,10 +1834,18 @@
         <f t="shared" si="0"/>
         <v>M-10-5-F</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="D9" s="2">
+        <v>571</v>
+      </c>
+      <c r="E9" s="2">
+        <v>121</v>
+      </c>
+      <c r="F9" s="5">
+        <v>170</v>
+      </c>
+      <c r="G9" s="5">
+        <v>14</v>
+      </c>
       <c r="H9" s="6">
         <v>55.7</v>
       </c>
@@ -1523,10 +1862,16 @@
         <f t="shared" si="0"/>
         <v>M-10-5-F</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2">
+        <v>156</v>
+      </c>
+      <c r="E10" s="2">
+        <v>132</v>
+      </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>1.9</v>
+      </c>
       <c r="H10" s="6">
         <v>27.3</v>
       </c>
@@ -1543,10 +1888,18 @@
         <f t="shared" si="0"/>
         <v>M-10-5,5-F</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="2">
+        <v>639</v>
+      </c>
+      <c r="E11" s="2">
+        <v>118</v>
+      </c>
+      <c r="F11" s="5">
+        <v>204</v>
+      </c>
+      <c r="G11" s="5">
+        <v>16</v>
+      </c>
       <c r="H11" s="6">
         <v>63.2</v>
       </c>
@@ -1563,10 +1916,16 @@
         <f t="shared" si="0"/>
         <v>M-10-5,5-F</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2">
+        <v>168</v>
+      </c>
+      <c r="E12" s="2">
+        <v>132</v>
+      </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>2.4</v>
+      </c>
       <c r="H12" s="6">
         <v>29.6</v>
       </c>
@@ -1583,10 +1942,18 @@
         <f t="shared" si="0"/>
         <v>M-10-6-F</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="2">
+        <v>692</v>
+      </c>
+      <c r="E13" s="2">
+        <v>113</v>
+      </c>
+      <c r="F13" s="5">
+        <v>223</v>
+      </c>
+      <c r="G13" s="5">
+        <v>17</v>
+      </c>
       <c r="H13" s="6">
         <v>71</v>
       </c>
@@ -1603,10 +1970,16 @@
         <f t="shared" si="0"/>
         <v>M-10-6-F</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2">
+        <v>180</v>
+      </c>
+      <c r="E14" s="2">
+        <v>137</v>
+      </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5">
+        <v>1.8</v>
+      </c>
       <c r="H14" s="6">
         <v>30.7</v>
       </c>
@@ -1623,10 +1996,18 @@
         <f t="shared" si="0"/>
         <v>M-10-6.5-F</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="D15" s="2">
+        <v>808</v>
+      </c>
+      <c r="E15" s="2">
+        <v>108</v>
+      </c>
+      <c r="F15" s="5">
+        <v>274</v>
+      </c>
+      <c r="G15" s="5">
+        <v>19</v>
+      </c>
       <c r="H15" s="6">
         <v>78.5</v>
       </c>
@@ -1643,10 +2024,16 @@
         <f t="shared" si="0"/>
         <v>M-10-6.5-F</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="2">
+        <v>200</v>
+      </c>
+      <c r="E16" s="2">
+        <v>141</v>
+      </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5">
+        <v>2.4</v>
+      </c>
       <c r="H16" s="6">
         <v>32.4</v>
       </c>
@@ -1708,6 +2095,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1715,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AF8B36-B0FD-4CC9-B091-FE33E35F5622}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,10 +2154,18 @@
         <f>CONCATENATE("M","-10.5-",A2,"-F")</f>
         <v>M-10.5-0-F</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="D2" s="2">
+        <v>404</v>
+      </c>
+      <c r="E2" s="2">
+        <v>121</v>
+      </c>
+      <c r="F2" s="5">
+        <v>69</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3.6</v>
+      </c>
       <c r="H2" s="6">
         <v>40.1</v>
       </c>
@@ -1786,10 +2182,18 @@
         <f t="shared" ref="C3:C16" si="0">CONCATENATE("M","-10.5-",A3,"-F")</f>
         <v>M-10.5-3,5-F</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="2">
+        <v>511</v>
+      </c>
+      <c r="E3" s="2">
+        <v>122</v>
+      </c>
+      <c r="F3" s="5">
+        <v>100</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="H3" s="6">
         <v>49.4</v>
       </c>
@@ -1806,10 +2210,16 @@
         <f t="shared" si="0"/>
         <v>M-10.5-3,5-F</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2">
+        <v>110</v>
+      </c>
+      <c r="E4" s="2">
+        <v>116</v>
+      </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <v>1.2</v>
+      </c>
       <c r="H4" s="6">
         <v>16.899999999999999</v>
       </c>
@@ -1826,10 +2236,18 @@
         <f t="shared" si="0"/>
         <v>M-10.5-4-F</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="2">
+        <v>589</v>
+      </c>
+      <c r="E5" s="2">
+        <v>122</v>
+      </c>
+      <c r="F5" s="5">
+        <v>123</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="H5" s="6">
         <v>52.2</v>
       </c>
@@ -1846,10 +2264,16 @@
         <f t="shared" si="0"/>
         <v>M-10.5-4-F</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2">
+        <v>125</v>
+      </c>
+      <c r="E6" s="2">
+        <v>127</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5">
+        <v>1.3</v>
+      </c>
       <c r="H6" s="6">
         <v>18.7</v>
       </c>
@@ -1866,10 +2290,18 @@
         <f t="shared" si="0"/>
         <v>M-10.5-5-F</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="2">
+        <v>662</v>
+      </c>
+      <c r="E7" s="2">
+        <v>120</v>
+      </c>
+      <c r="F7" s="5">
+        <v>142</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5.4</v>
+      </c>
       <c r="H7" s="6">
         <v>61.1</v>
       </c>
@@ -1886,10 +2318,16 @@
         <f t="shared" si="0"/>
         <v>M-10.5-5-F</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2">
+        <v>138</v>
+      </c>
+      <c r="E8" s="2">
+        <v>134</v>
+      </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5">
+        <v>1.4</v>
+      </c>
       <c r="H8" s="6">
         <v>19.899999999999999</v>
       </c>
@@ -1906,10 +2344,18 @@
         <f t="shared" si="0"/>
         <v>M-10.5-6-F</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="D9" s="2">
+        <v>755</v>
+      </c>
+      <c r="E9" s="2">
+        <v>114</v>
+      </c>
+      <c r="F9" s="5">
+        <v>168</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5.7</v>
+      </c>
       <c r="H9" s="6">
         <v>67.2</v>
       </c>
@@ -1926,10 +2372,16 @@
         <f t="shared" si="0"/>
         <v>M-10.5-6-F</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2">
+        <v>154</v>
+      </c>
+      <c r="E10" s="2">
+        <v>142</v>
+      </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>1.5</v>
+      </c>
       <c r="H10" s="6">
         <v>21.5</v>
       </c>
@@ -1946,10 +2398,18 @@
         <f t="shared" si="0"/>
         <v>M-10.5-7-F</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="2">
+        <v>897</v>
+      </c>
+      <c r="E11" s="2">
+        <v>108</v>
+      </c>
+      <c r="F11" s="5">
+        <v>214</v>
+      </c>
+      <c r="G11" s="5">
+        <v>6.5</v>
+      </c>
       <c r="H11" s="6">
         <v>81.400000000000006</v>
       </c>
@@ -1966,10 +2426,16 @@
         <f t="shared" si="0"/>
         <v>M-10.5-7-F</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2">
+        <v>171</v>
+      </c>
+      <c r="E12" s="2">
+        <v>145</v>
+      </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>1.6</v>
+      </c>
       <c r="H12" s="6">
         <v>24</v>
       </c>
@@ -1986,10 +2452,18 @@
         <f t="shared" si="0"/>
         <v>M-10.5-8-F</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="2">
+        <v>1145</v>
+      </c>
+      <c r="E13" s="2">
+        <v>94</v>
+      </c>
+      <c r="F13" s="5">
+        <v>291</v>
+      </c>
+      <c r="G13" s="5">
+        <v>7.8</v>
+      </c>
       <c r="H13" s="6">
         <v>98</v>
       </c>
@@ -2006,10 +2480,16 @@
         <f t="shared" si="0"/>
         <v>M-10.5-8-F</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2">
+        <v>203</v>
+      </c>
+      <c r="E14" s="2">
+        <v>147</v>
+      </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5">
+        <v>1.8</v>
+      </c>
       <c r="H14" s="6">
         <v>26.8</v>
       </c>
@@ -2116,6 +2596,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E78B91D136322B4B88AACAC10B799BA7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="52dbf37e4aa862fc764e7c3c7dcf0ed7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="101a4c32-93e6-451b-af80-27e4b4d7db4f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd6ecd47487872985ac4273c58173273" ns2:_="">
     <xsd:import namespace="101a4c32-93e6-451b-af80-27e4b4d7db4f"/>
@@ -2305,22 +2800,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B783440C-62DC-42FE-9589-8A9CE83180AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{206626F3-63FC-499C-8A9F-26A75AC42EA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2400B7F1-9892-47BB-B745-EA4ABA514B22}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2336,21 +2833,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{206626F3-63FC-499C-8A9F-26A75AC42EA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B783440C-62DC-42FE-9589-8A9CE83180AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Analyse_multi_salt.xlsx
+++ b/data/Analyse_multi_salt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grundfos.sharepoint.com/sites/AnalyticalLaboratory/Shared Documents/General/06_Dokumentation til opg. u. rap/2021/21_NF-Mini_N5_Stud/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grundfos-my.sharepoint.com/personal/102222_grundfos_com/Documents/Desktop/Speciale/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="14_{49B238E7-3744-4467-943B-D7F5F52211C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4CE50C38-1E56-409D-B29C-65A8D21ED6B5}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="14_{49B238E7-3744-4467-943B-D7F5F52211C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CE50C38-1E56-409D-B29C-65A8D21ED6B5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{9A7F57C6-AEBE-42AA-863E-04BDCF82B821}"/>
+    <workbookView xWindow="4575" yWindow="1410" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{9A7F57C6-AEBE-42AA-863E-04BDCF82B821}"/>
   </bookViews>
   <sheets>
     <sheet name="pH 9.2" sheetId="1" r:id="rId1"/>
@@ -2104,7 +2104,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,21 +2596,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E78B91D136322B4B88AACAC10B799BA7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="52dbf37e4aa862fc764e7c3c7dcf0ed7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="101a4c32-93e6-451b-af80-27e4b4d7db4f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd6ecd47487872985ac4273c58173273" ns2:_="">
     <xsd:import namespace="101a4c32-93e6-451b-af80-27e4b4d7db4f"/>
@@ -2800,24 +2785,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B783440C-62DC-42FE-9589-8A9CE83180AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{206626F3-63FC-499C-8A9F-26A75AC42EA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2400B7F1-9892-47BB-B745-EA4ABA514B22}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2833,4 +2816,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{206626F3-63FC-499C-8A9F-26A75AC42EA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B783440C-62DC-42FE-9589-8A9CE83180AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>